--- a/data/datacatalogue/_datacatalogue_schema.xlsx
+++ b/data/datacatalogue/_datacatalogue_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/backend/molgenis-emx2-io/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A11387-1BC8-B943-8C39-14289C8FEEEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0AB515-8761-ED44-BA00-C019D96513F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="411">
   <si>
     <t>tableName</t>
   </si>
@@ -363,9 +363,6 @@
     <t>describing access and use conditions</t>
   </si>
   <si>
-    <t>licence</t>
-  </si>
-  <si>
     <t>dct:licence</t>
   </si>
   <si>
@@ -1267,6 +1264,9 @@
   </si>
   <si>
     <t>Prompts</t>
+  </si>
+  <si>
+    <t>conditionsDescription</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827AF39-8A78-C843-9B70-9944F4620E8F}">
-  <dimension ref="A1:L233"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1797,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2766,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>23</v>
@@ -2941,13 +2941,13 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>23</v>
@@ -2967,11 +2967,11 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>23</v>
@@ -2993,7 +2993,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3016,10 +3016,10 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>32</v>
@@ -3041,10 +3041,10 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L53" s="7"/>
     </row>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>35</v>
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>35</v>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3136,26 +3136,26 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3164,29 +3164,29 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>36</v>
@@ -3199,61 +3199,61 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="L59" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>36</v>
@@ -3275,50 +3275,50 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>96</v>
@@ -3329,151 +3329,147 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="7" t="s">
-        <v>410</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="L66" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="6"/>
+      <c r="J68" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="L68" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -3482,22 +3478,22 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>408</v>
+        <v>148</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -3505,231 +3501,233 @@
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6" t="s">
+      <c r="K80" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L80" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="7"/>
-      <c r="F81" s="9" t="s">
-        <v>141</v>
+      <c r="F81" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3738,80 +3736,72 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="7" t="s">
-        <v>145</v>
+      <c r="F82" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10" t="s">
+      <c r="K84" s="10"/>
+      <c r="L84" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="11">
-        <v>1</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3820,7 +3810,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>21</v>
@@ -3829,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -3837,13 +3827,11 @@
         <v>1</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3852,22 +3840,30 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1</v>
+      </c>
       <c r="F86" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
+      <c r="I86" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="L86" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3876,24 +3872,22 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="11" t="s">
-        <v>187</v>
-      </c>
+      <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3902,70 +3896,66 @@
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
+      <c r="J88" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="11">
-        <v>1</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3974,7 +3964,7 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>21</v>
@@ -3983,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -3991,11 +3981,11 @@
         <v>1</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4004,26 +3994,28 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="11"/>
+      <c r="E92" s="11">
+        <v>1</v>
+      </c>
       <c r="F92" s="11" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="I92" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J92" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K92" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="K92" s="11"/>
       <c r="L92" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4032,22 +4024,26 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
+      <c r="J93" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="L93" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4056,24 +4052,22 @@
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
-      <c r="J94" s="11" t="s">
-        <v>200</v>
-      </c>
+      <c r="J94" s="11"/>
       <c r="K94" s="11"/>
       <c r="L94" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4082,154 +4076,158 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
+      <c r="J95" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="11">
-        <v>1</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E98" s="11">
         <v>1</v>
       </c>
-      <c r="F98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J98" s="11" t="s">
-        <v>206</v>
-      </c>
+      <c r="J98" s="11"/>
       <c r="K98" s="11"/>
       <c r="L98" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="12" t="s">
-        <v>208</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E99" s="11">
+        <v>1</v>
+      </c>
+      <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="I99" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J99" s="11" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
+      <c r="F100" s="12" t="s">
+        <v>207</v>
+      </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
+      <c r="J100" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -4239,19 +4237,19 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
       <c r="L101" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -4261,55 +4259,49 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10" t="s">
+      <c r="L104" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="L103" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="11">
-        <v>1</v>
-      </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="L104" s="11" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4318,12 +4310,14 @@
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="11"/>
+      <c r="E105" s="11">
+        <v>1</v>
+      </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -4332,10 +4326,10 @@
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="11" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4344,22 +4338,24 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
+      <c r="I106" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4368,10 +4364,10 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -4380,10 +4376,10 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4392,10 +4388,10 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -4404,10 +4400,10 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4416,10 +4412,10 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -4428,10 +4424,10 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4440,7 +4436,7 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>96</v>
@@ -4452,10 +4448,10 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4464,10 +4460,10 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -4476,10 +4472,10 @@
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4488,7 +4484,7 @@
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>16</v>
@@ -4500,10 +4496,10 @@
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4512,7 +4508,7 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>16</v>
@@ -4524,10 +4520,10 @@
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4536,10 +4532,10 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -4548,9 +4544,11 @@
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="L114" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
@@ -4558,192 +4556,188 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E115" s="11"/>
-      <c r="F115" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11" t="s">
+      <c r="K115" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10" t="s">
+      <c r="K117" s="10"/>
+      <c r="L117" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" s="11">
-        <v>1</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>
       </c>
-      <c r="F118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
-        <v>135</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E119" s="11">
+        <v>1</v>
+      </c>
+      <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
+      <c r="I119" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J119" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
       <c r="J120" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="K121" s="11" t="s">
-        <v>225</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K121" s="11"/>
       <c r="L121" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -4751,72 +4745,74 @@
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11" t="s">
+      <c r="K123" s="11"/>
+      <c r="L123" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" s="14">
-        <v>1</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E125" s="14">
         <v>1</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14" t="b">
@@ -4828,34 +4824,38 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E126" s="14"/>
+      <c r="E126" s="14">
+        <v>1</v>
+      </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -4864,17 +4864,15 @@
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
-      <c r="L127" s="14" t="s">
-        <v>265</v>
-      </c>
+      <c r="L127" s="14"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>96</v>
@@ -4887,47 +4885,45 @@
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E129" s="14"/>
-      <c r="F129" s="14" t="s">
-        <v>268</v>
-      </c>
+      <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
@@ -4935,142 +4931,140 @@
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="F131" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E132" s="14"/>
-      <c r="F132" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="F133" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13" t="s">
+      <c r="L135" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="L134" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E135" s="14">
-        <v>1</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E136" s="14">
         <v>1</v>
       </c>
-      <c r="F136" s="14"/>
+      <c r="F136" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14" t="b">
@@ -5079,39 +5073,45 @@
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E137" s="14">
+        <v>1</v>
+      </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
+      <c r="I137" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
+      <c r="L137" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -5124,19 +5124,17 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E139" s="14"/>
-      <c r="F139" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
@@ -5146,182 +5144,180 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
-      <c r="L140" s="14" t="s">
-        <v>281</v>
-      </c>
+      <c r="L140" s="14"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="F141" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
+      <c r="L141" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E143" s="11">
-        <v>1</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E144" s="11">
         <v>1</v>
       </c>
-      <c r="F144" s="11"/>
+      <c r="F144" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J144" s="11"/>
+      <c r="J144" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="K144" s="11"/>
       <c r="L144" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E145" s="11"/>
+      <c r="E145" s="11">
+        <v>1</v>
+      </c>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
+      <c r="I145" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
       <c r="L145" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E146" s="11"/>
-      <c r="F146" s="11" t="s">
-        <v>290</v>
-      </c>
+      <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
       <c r="L146" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11" t="s">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11" t="s">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -5329,41 +5325,43 @@
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
       <c r="L147" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
+      <c r="F148" s="11" t="s">
+        <v>406</v>
+      </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
@@ -5373,114 +5371,106 @@
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
       <c r="L149" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E150" s="11"/>
-      <c r="F150" s="11" t="s">
-        <v>297</v>
-      </c>
+      <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="11" t="s">
-        <v>298</v>
-      </c>
+      <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
       <c r="L150" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
+      <c r="L151" s="11" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" s="11">
-        <v>1</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>21</v>
@@ -5489,37 +5479,41 @@
         <v>1</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J154" s="11"/>
+      <c r="J154" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="K154" s="11"/>
       <c r="L154" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11" t="s">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
+      <c r="F155" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>283</v>
+      </c>
       <c r="H155" s="11"/>
       <c r="I155" s="11" t="b">
         <v>1</v>
@@ -5527,114 +5521,120 @@
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
       <c r="L155" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11" t="s">
-        <v>263</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E156" s="11">
+        <v>1</v>
+      </c>
+      <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
+      <c r="I156" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
       <c r="L156" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="11" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="G157" s="11"/>
-      <c r="H157" s="11" t="s">
-        <v>311</v>
-      </c>
+      <c r="H157" s="11"/>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
+      <c r="B159" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
-      <c r="L159" s="11"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>287</v>
+        <v>405</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
+      <c r="F160" s="11" t="s">
+        <v>406</v>
+      </c>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
@@ -5644,42 +5644,38 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E161" s="11"/>
-      <c r="F161" s="11" t="s">
-        <v>316</v>
-      </c>
+      <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
-      <c r="L161" s="11" t="s">
-        <v>317</v>
-      </c>
+      <c r="L161" s="11"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -5687,89 +5683,91 @@
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
       <c r="L162" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>32</v>
+        <v>317</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E163" s="11"/>
       <c r="F163" s="11" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
+      <c r="L163" s="11" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>21</v>
+        <v>405</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="G164" s="11"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
-      <c r="L164" s="11" t="s">
-        <v>322</v>
-      </c>
+      <c r="L164" s="11"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
+      <c r="F165" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>283</v>
+      </c>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
       <c r="L165" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>23</v>
+        <v>322</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -5778,18 +5776,20 @@
       <c r="I166" s="11"/>
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
+      <c r="L166" s="11" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
@@ -5798,20 +5798,18 @@
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
-      <c r="L167" s="11" t="s">
-        <v>327</v>
-      </c>
+      <c r="L167" s="11"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -5820,27 +5818,25 @@
       <c r="I168" s="11"/>
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
+      <c r="L168" s="11" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E169" s="11"/>
-      <c r="F169" s="11" t="s">
-        <v>330</v>
-      </c>
+      <c r="F169" s="11"/>
       <c r="G169" s="11"/>
-      <c r="H169" s="11" t="s">
-        <v>331</v>
-      </c>
+      <c r="H169" s="11"/>
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
@@ -5848,21 +5844,23 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E170" s="11"/>
       <c r="F170" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
+      <c r="H170" s="11" t="s">
+        <v>330</v>
+      </c>
       <c r="I170" s="11"/>
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
@@ -5870,131 +5868,125 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G171" s="11"/>
-      <c r="H171" s="11" t="s">
-        <v>336</v>
-      </c>
+      <c r="H171" s="11"/>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
-      <c r="L171" s="11" t="s">
+      <c r="L171" s="11"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10" t="s">
+      <c r="D174" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E175" s="11">
-        <v>1</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K175" s="11"/>
-      <c r="L175" s="11"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>21</v>
@@ -6003,37 +5995,39 @@
         <v>1</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G176" s="11"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J176" s="11"/>
+      <c r="J176" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="K176" s="11"/>
-      <c r="L176" s="11" t="s">
-        <v>341</v>
-      </c>
+      <c r="L176" s="11"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E177" s="11">
         <v>1</v>
       </c>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
+      <c r="F177" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>283</v>
+      </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11" t="b">
         <v>1</v>
@@ -6041,21 +6035,23 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
       <c r="L177" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E178" s="11"/>
+      <c r="E178" s="11">
+        <v>1</v>
+      </c>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -6064,38 +6060,42 @@
       </c>
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
+      <c r="L178" s="11" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
+      <c r="I179" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
       <c r="L179" s="11"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
@@ -6108,14 +6108,14 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
@@ -6124,61 +6124,55 @@
       <c r="I181" s="11"/>
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
-      <c r="L181" s="11" t="s">
+      <c r="L181" s="11"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
-      <c r="L182" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E183" s="11">
-        <v>1</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" s="11"/>
-      <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>21</v>
@@ -6187,11 +6181,9 @@
         <v>1</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>348</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G184" s="11"/>
       <c r="H184" s="11"/>
       <c r="I184" s="11" t="b">
         <v>1</v>
@@ -6202,63 +6194,65 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E185" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E185" s="11">
+        <v>1</v>
+      </c>
       <c r="F185" s="11" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
+      <c r="I185" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
-      <c r="L185" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="L185" s="11"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E186" s="11">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E186" s="11"/>
       <c r="F186" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G186" s="11"/>
+        <v>301</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="H186" s="11"/>
-      <c r="I186" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I186" s="11"/>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
-      <c r="L186" s="11"/>
+      <c r="L186" s="11" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>21</v>
@@ -6267,11 +6261,9 @@
         <v>1</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G187" s="11" t="s">
-        <v>351</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G187" s="11"/>
       <c r="H187" s="11"/>
       <c r="I187" s="11" t="b">
         <v>1</v>
@@ -6282,11 +6274,11 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>21</v>
@@ -6295,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="11" t="b">
@@ -6306,26 +6298,28 @@
       </c>
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
-      <c r="L188" s="11" t="s">
-        <v>352</v>
-      </c>
+      <c r="L188" s="11"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E189" s="11"/>
+      <c r="E189" s="11">
+        <v>1</v>
+      </c>
       <c r="F189" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G189" s="11"/>
+        <v>301</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11" t="b">
         <v>1</v>
@@ -6333,62 +6327,66 @@
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E190" s="11"/>
       <c r="F190" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
+      <c r="I190" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
+      <c r="F191" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>23</v>
@@ -6401,16 +6399,16 @@
       <c r="J192" s="11"/>
       <c r="K192" s="11"/>
       <c r="L192" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>23</v>
@@ -6423,92 +6421,84 @@
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A194" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="10" t="s">
-        <v>364</v>
+      <c r="A194" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E195" s="10">
-        <v>1</v>
-      </c>
-      <c r="F195" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="A195" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
-      <c r="I195" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
-      <c r="L195" s="11" t="s">
-        <v>365</v>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E196" s="11">
+      <c r="E196" s="10">
         <v>1</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G196" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H196" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
       <c r="I196" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>21</v>
@@ -6517,9 +6507,11 @@
         <v>1</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G197" s="11"/>
+        <v>281</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>347</v>
+      </c>
       <c r="H197" s="11"/>
       <c r="I197" s="11" t="b">
         <v>1</v>
@@ -6527,16 +6519,16 @@
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>21</v>
@@ -6545,11 +6537,9 @@
         <v>1</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>351</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G198" s="11"/>
       <c r="H198" s="11"/>
       <c r="I198" s="11" t="b">
         <v>1</v>
@@ -6557,41 +6547,49 @@
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
       <c r="L198" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E199" s="11">
+        <v>1</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
+      <c r="I199" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
       <c r="L199" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
@@ -6601,16 +6599,16 @@
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
       <c r="L200" s="11" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="11" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>23</v>
@@ -6623,134 +6621,134 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="16" t="s">
+      <c r="A202" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B203" s="17"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+      <c r="J203" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B202" s="17"/>
-      <c r="C202" s="16"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="16"/>
-      <c r="F202" s="16"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
-      <c r="I202" s="16"/>
-      <c r="J202" s="16" t="s">
+      <c r="K203" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="K202" s="16" t="s">
+      <c r="L203" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="L202" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E203" s="18">
-        <v>1</v>
-      </c>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K203" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L203" s="18"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B204" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="B204" s="18"/>
       <c r="C204" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="D204" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E204" s="18">
-        <v>2</v>
-      </c>
-      <c r="F204" s="16"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="16"/>
-      <c r="J204" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="18" t="s">
+        <v>373</v>
+      </c>
       <c r="K204" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L204" s="18" t="s">
-        <v>376</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L204" s="18"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B205" s="18"/>
+        <v>369</v>
+      </c>
+      <c r="B205" s="17"/>
       <c r="C205" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="18"/>
-      <c r="J205" s="18"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="18"/>
+        <v>374</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" s="18">
+        <v>2</v>
+      </c>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+      <c r="J205" s="16"/>
+      <c r="K205" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L205" s="18" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B206" s="18"/>
       <c r="C206" s="18" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E206" s="18"/>
       <c r="F206" s="18"/>
       <c r="G206" s="18"/>
       <c r="H206" s="18"/>
       <c r="I206" s="18"/>
-      <c r="J206" s="18" t="s">
-        <v>378</v>
-      </c>
+      <c r="J206" s="18"/>
       <c r="K206" s="18"/>
       <c r="L206" s="18"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>23</v>
@@ -6761,139 +6759,141 @@
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
       <c r="J207" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K207" s="18"/>
       <c r="L207" s="18"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="18" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E208" s="18"/>
-      <c r="F208" s="18" t="s">
-        <v>370</v>
-      </c>
+      <c r="F208" s="18"/>
       <c r="G208" s="18"/>
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K208" s="18"/>
-      <c r="L208" s="18" t="s">
-        <v>382</v>
-      </c>
+      <c r="L208" s="18"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B209" s="18"/>
       <c r="C209" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E209" s="18"/>
       <c r="F209" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G209" s="18"/>
-      <c r="H209" s="18" t="s">
-        <v>380</v>
-      </c>
+      <c r="H209" s="18"/>
       <c r="I209" s="18"/>
       <c r="J209" s="18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K209" s="18"/>
       <c r="L209" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E210" s="18">
-        <v>3</v>
-      </c>
-      <c r="F210" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18" t="s">
+        <v>369</v>
+      </c>
       <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
+      <c r="H210" s="18" t="s">
+        <v>379</v>
+      </c>
       <c r="I210" s="18"/>
       <c r="J210" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="K210" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="K210" s="18"/>
+      <c r="L210" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" s="18">
+        <v>3</v>
+      </c>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+      <c r="J211" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="K211" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L210" s="18"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C211" s="16"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="16"/>
-      <c r="J211" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="K211" s="16"/>
-      <c r="L211" s="16" t="s">
-        <v>389</v>
-      </c>
+      <c r="L211" s="18"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
+      <c r="D212" s="17"/>
       <c r="E212" s="16"/>
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
       <c r="H212" s="16"/>
       <c r="I212" s="16"/>
-      <c r="J212" s="16"/>
-      <c r="K212" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L212" s="16"/>
+      <c r="J212" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="K212" s="16"/>
+      <c r="L212" s="16" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
@@ -6904,16 +6904,16 @@
       <c r="I213" s="16"/>
       <c r="J213" s="16"/>
       <c r="K213" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L213" s="16"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="16" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
@@ -6924,21 +6924,19 @@
       <c r="I214" s="16"/>
       <c r="J214" s="16"/>
       <c r="K214" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L214" s="16" t="s">
-        <v>390</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="L214" s="16"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" s="17" t="s">
-        <v>124</v>
+      <c r="A215" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C215" s="16"/>
-      <c r="D215" s="17"/>
+      <c r="D215" s="16"/>
       <c r="E215" s="16"/>
       <c r="F215" s="16"/>
       <c r="G215" s="16"/>
@@ -6946,16 +6944,18 @@
       <c r="I215" s="16"/>
       <c r="J215" s="16"/>
       <c r="K215" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L215" s="16"/>
+        <v>371</v>
+      </c>
+      <c r="L215" s="16" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="17" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="17"/>
@@ -6964,22 +6964,18 @@
       <c r="G216" s="16"/>
       <c r="H216" s="16"/>
       <c r="I216" s="16"/>
-      <c r="J216" s="16" t="s">
-        <v>391</v>
-      </c>
+      <c r="J216" s="16"/>
       <c r="K216" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="L216" s="16" t="s">
-        <v>393</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="L216" s="16"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="17" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="17"/>
@@ -6988,18 +6984,22 @@
       <c r="G217" s="16"/>
       <c r="H217" s="16"/>
       <c r="I217" s="16"/>
-      <c r="J217" s="16"/>
+      <c r="J217" s="16" t="s">
+        <v>390</v>
+      </c>
       <c r="K217" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L217" s="16"/>
+        <v>391</v>
+      </c>
+      <c r="L217" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="17"/>
@@ -7010,19 +7010,19 @@
       <c r="I218" s="16"/>
       <c r="J218" s="16"/>
       <c r="K218" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L218" s="16"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="17" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C219" s="16"/>
-      <c r="D219" s="16"/>
+      <c r="D219" s="17"/>
       <c r="E219" s="16"/>
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
@@ -7030,16 +7030,16 @@
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L219" s="16"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" s="16" t="s">
-        <v>22</v>
+      <c r="A220" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
@@ -7050,16 +7050,16 @@
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L220" s="16"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -7070,16 +7070,16 @@
       <c r="I221" s="16"/>
       <c r="J221" s="16"/>
       <c r="K221" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L221" s="16"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="16" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -7090,16 +7090,16 @@
       <c r="I222" s="16"/>
       <c r="J222" s="16"/>
       <c r="K222" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L222" s="16"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -7110,18 +7110,16 @@
       <c r="I223" s="16"/>
       <c r="J223" s="16"/>
       <c r="K223" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L223" s="16" t="s">
-        <v>394</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="L223" s="16"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
@@ -7130,38 +7128,42 @@
       <c r="G224" s="16"/>
       <c r="H224" s="16"/>
       <c r="I224" s="16"/>
-      <c r="J224" s="16" t="s">
-        <v>395</v>
-      </c>
+      <c r="J224" s="16"/>
       <c r="K224" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L224" s="16"/>
+        <v>371</v>
+      </c>
+      <c r="L224" s="16" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="16" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C225" s="18"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="18"/>
-      <c r="F225" s="18"/>
-      <c r="G225" s="18"/>
-      <c r="H225" s="18"/>
-      <c r="I225" s="18"/>
-      <c r="J225" s="18"/>
-      <c r="K225" s="18"/>
-      <c r="L225" s="18"/>
+        <v>369</v>
+      </c>
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="16"/>
+      <c r="J225" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="K225" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="L225" s="16"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="16" t="s">
-        <v>410</v>
+        <v>185</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="18"/>
@@ -7176,56 +7178,66 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="18"/>
+      <c r="H227" s="18"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="18"/>
+      <c r="K227" s="18"/>
+      <c r="L227" s="18"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B227" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C227" s="16"/>
-      <c r="D227" s="16"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="16"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="16"/>
-      <c r="J227" s="16"/>
-      <c r="K227" s="16"/>
-      <c r="L227" s="16"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="B228" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C228" s="16"/>
-      <c r="D228" s="17"/>
+      <c r="D228" s="16"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
       <c r="H228" s="16"/>
       <c r="I228" s="16"/>
       <c r="J228" s="16"/>
-      <c r="K228" s="16" t="s">
-        <v>372</v>
-      </c>
+      <c r="K228" s="16"/>
       <c r="L228" s="16"/>
     </row>
-    <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C229" s="20" t="s">
-        <v>396</v>
-      </c>
+      <c r="B229" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C229" s="16"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+      <c r="I229" s="16"/>
+      <c r="J229" s="16"/>
+      <c r="K229" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="L229" s="16"/>
     </row>
     <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -7233,10 +7245,7 @@
         <v>78</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D231" t="s">
-        <v>23</v>
+        <v>396</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -7244,7 +7253,7 @@
         <v>78</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="D232" t="s">
         <v>23</v>
@@ -7255,9 +7264,20 @@
         <v>78</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C234" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D234" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/datacatalogue/_datacatalogue_schema.xlsx
+++ b/data/datacatalogue/_datacatalogue_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0AB515-8761-ED44-BA00-C019D96513F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D24C6C-534E-6043-AB83-5E0F889676C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
@@ -1720,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827AF39-8A78-C843-9B70-9944F4620E8F}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>32</v>

--- a/data/datacatalogue/_datacatalogue_schema.xlsx
+++ b/data/datacatalogue/_datacatalogue_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D24C6C-534E-6043-AB83-5E0F889676C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D11D79-4D50-994A-8F35-680707DC4F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>refLink</t>
   </si>
   <si>
-    <t>mappedBy</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -1267,6 +1264,9 @@
   </si>
   <si>
     <t>conditionsDescription</t>
+  </si>
+  <si>
+    <t>refBack</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,24 +1763,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1791,25 +1791,25 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1822,20 +1822,20 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1845,27 +1845,27 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1876,14 +1876,14 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1892,44 +1892,44 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1938,20 +1938,20 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -1960,24 +1960,24 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1988,22 +1988,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2012,33 +2012,33 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2049,25 +2049,25 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -2079,55 +2079,55 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2135,19 +2135,19 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2160,14 +2160,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2175,25 +2175,25 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -2203,25 +2203,25 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -2232,20 +2232,20 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3">
         <v>6</v>
@@ -2260,14 +2260,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2276,20 +2276,20 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -2304,14 +2304,14 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -2326,22 +2326,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
@@ -2350,18 +2350,18 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2385,16 +2385,16 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3">
@@ -2407,19 +2407,19 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -2433,23 +2433,23 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2457,19 +2457,19 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2482,14 +2482,14 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2502,70 +2502,70 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2587,25 +2587,25 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E37" s="7">
         <v>1</v>
@@ -2617,25 +2617,25 @@
         <v>1</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="7">
         <v>2</v>
@@ -2645,53 +2645,53 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -2699,25 +2699,25 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -2725,25 +2725,25 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -2751,109 +2751,109 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -2861,25 +2861,25 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -2887,53 +2887,53 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -2941,25 +2941,25 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2967,23 +2967,23 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -2993,75 +2993,75 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3072,124 +3072,124 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3199,61 +3199,61 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="L59" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3275,53 +3275,53 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -3329,25 +3329,25 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -3360,18 +3360,18 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -3379,19 +3379,19 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -3404,42 +3404,42 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="L68" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -3449,27 +3449,27 @@
       <c r="J69" s="7"/>
       <c r="K69" s="6"/>
       <c r="L69" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -3478,22 +3478,22 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -3502,22 +3502,22 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3539,91 +3539,91 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3633,69 +3633,69 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3705,29 +3705,29 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="L80" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3738,18 +3738,18 @@
     </row>
     <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3760,33 +3760,33 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3797,29 +3797,29 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E85" s="11">
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -3827,29 +3827,29 @@
         <v>1</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" s="11">
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -3857,29 +3857,29 @@
         <v>1</v>
       </c>
       <c r="J86" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L86" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -3887,45 +3887,45 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -3935,12 +3935,12 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3951,29 +3951,29 @@
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91" s="11">
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -3981,29 +3981,29 @@
         <v>1</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" s="11">
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -4011,55 +4011,55 @@
         <v>1</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="K93" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L93" s="11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -4067,45 +4067,45 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
       <c r="L94" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
       <c r="J95" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -4115,12 +4115,12 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
       <c r="L96" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4133,25 +4133,25 @@
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" s="11">
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -4161,19 +4161,19 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
       <c r="L98" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99" s="11">
         <v>1</v>
@@ -4185,49 +4185,49 @@
         <v>1</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -4237,19 +4237,19 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
       <c r="L101" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -4259,19 +4259,19 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -4281,12 +4281,12 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4298,22 +4298,22 @@
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L104" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="L104" s="10" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="11">
         <v>1</v>
@@ -4326,22 +4326,22 @@
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L105" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="L105" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -4352,22 +4352,22 @@
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -4376,22 +4376,22 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L107" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="L107" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -4400,22 +4400,22 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L108" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -4424,22 +4424,22 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L109" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="L109" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -4448,22 +4448,22 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L110" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="L110" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -4472,22 +4472,22 @@
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="L111" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="L111" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -4496,22 +4496,22 @@
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="L112" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="L112" s="11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -4520,22 +4520,22 @@
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L113" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="L113" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -4544,22 +4544,22 @@
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="L114" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="L114" s="11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -4568,39 +4568,39 @@
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L115" s="11"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
       <c r="L116" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -4611,29 +4611,29 @@
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K117" s="10"/>
       <c r="L117" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -4641,23 +4641,23 @@
         <v>1</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119" s="11">
         <v>1</v>
@@ -4669,75 +4669,75 @@
         <v>1</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
       <c r="J120" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -4745,25 +4745,25 @@
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L122" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="K122" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="L122" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -4771,16 +4771,16 @@
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
       <c r="J123" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -4793,25 +4793,25 @@
       <c r="J124" s="13"/>
       <c r="K124" s="13"/>
       <c r="L124" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="14">
         <v>1</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -4824,14 +4824,14 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126" s="14">
         <v>1</v>
@@ -4848,14 +4848,14 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -4868,14 +4868,14 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
@@ -4885,19 +4885,19 @@
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -4907,23 +4907,23 @@
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
@@ -4931,23 +4931,23 @@
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -4955,19 +4955,19 @@
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
@@ -4977,45 +4977,45 @@
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
@@ -5025,12 +5025,12 @@
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
       <c r="L134" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -5042,28 +5042,28 @@
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
       <c r="K135" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L135" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="L135" s="13" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E136" s="14">
         <v>1</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -5073,19 +5073,19 @@
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137" s="14">
         <v>1</v>
@@ -5099,19 +5099,19 @@
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
       <c r="L137" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -5124,14 +5124,14 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
@@ -5144,18 +5144,18 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
@@ -5166,18 +5166,18 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
@@ -5185,19 +5185,19 @@
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
       <c r="L141" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142" s="14"/>
       <c r="C142" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5223,25 +5223,25 @@
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
       <c r="L143" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E144" s="11">
         <v>1</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -5249,23 +5249,23 @@
         <v>1</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K144" s="11"/>
       <c r="L144" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145" s="11">
         <v>1</v>
@@ -5279,19 +5279,19 @@
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
       <c r="L145" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
@@ -5301,23 +5301,23 @@
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
       <c r="L146" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -5325,23 +5325,23 @@
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
       <c r="L147" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -5349,19 +5349,19 @@
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
@@ -5371,19 +5371,19 @@
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
       <c r="L149" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
@@ -5393,53 +5393,53 @@
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
       <c r="L150" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
       <c r="L151" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5461,25 +5461,25 @@
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E154" s="11">
         <v>1</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -5487,32 +5487,32 @@
         <v>1</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E155" s="11">
         <v>1</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" s="11" t="b">
@@ -5521,19 +5521,19 @@
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
       <c r="L155" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156" s="11">
         <v>1</v>
@@ -5547,23 +5547,23 @@
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
       <c r="L156" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -5571,41 +5571,41 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -5617,23 +5617,23 @@
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
       <c r="L159" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E160" s="11"/>
       <c r="F160" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -5644,14 +5644,14 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
@@ -5664,18 +5664,18 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -5683,23 +5683,23 @@
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
       <c r="L162" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E163" s="11"/>
       <c r="F163" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -5707,23 +5707,23 @@
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
       <c r="L163" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -5734,40 +5734,40 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
       <c r="L165" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D166" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -5777,19 +5777,19 @@
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
       <c r="L166" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
@@ -5802,14 +5802,14 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -5819,19 +5819,19 @@
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
       <c r="L168" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
@@ -5844,22 +5844,22 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E170" s="11"/>
       <c r="F170" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G170" s="11"/>
       <c r="H170" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I170" s="11"/>
       <c r="J170" s="11"/>
@@ -5868,18 +5868,18 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -5890,36 +5890,36 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E172" s="11"/>
       <c r="F172" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G172" s="11"/>
       <c r="H172" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
       <c r="L172" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -5931,26 +5931,26 @@
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E174" s="11"/>
       <c r="F174" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H174" s="11"/>
       <c r="I174" s="11" t="b">
@@ -5959,12 +5959,12 @@
       <c r="J174" s="11"/>
       <c r="K174" s="11"/>
       <c r="L174" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -5977,25 +5977,25 @@
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E176" s="11">
         <v>1</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -6003,30 +6003,30 @@
         <v>1</v>
       </c>
       <c r="J176" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K176" s="11"/>
       <c r="L176" s="11"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E177" s="11">
         <v>1</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11" t="b">
@@ -6035,19 +6035,19 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
       <c r="L177" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E178" s="11">
         <v>1</v>
@@ -6061,19 +6061,19 @@
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
       <c r="L178" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
@@ -6088,14 +6088,14 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
@@ -6108,14 +6108,14 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
@@ -6128,14 +6128,14 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
@@ -6145,12 +6145,12 @@
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
       <c r="L182" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6163,25 +6163,25 @@
       <c r="J183" s="10"/>
       <c r="K183" s="10"/>
       <c r="L183" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E184" s="11">
         <v>1</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -6194,23 +6194,23 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185" s="11">
         <v>1</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H185" s="11"/>
       <c r="I185" s="11" t="b">
@@ -6222,46 +6222,46 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E186" s="11"/>
       <c r="F186" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E187" s="11">
         <v>1</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
@@ -6274,23 +6274,23 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E188" s="11">
         <v>1</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="11" t="b">
@@ -6302,23 +6302,23 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E189" s="11">
         <v>1</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11" t="b">
@@ -6327,23 +6327,23 @@
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E190" s="11"/>
       <c r="F190" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
@@ -6353,23 +6353,23 @@
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E191" s="11"/>
       <c r="F191" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
@@ -6377,19 +6377,19 @@
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
@@ -6399,19 +6399,19 @@
       <c r="J192" s="11"/>
       <c r="K192" s="11"/>
       <c r="L192" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
@@ -6421,19 +6421,19 @@
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
@@ -6443,12 +6443,12 @@
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
       <c r="L194" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6461,25 +6461,25 @@
       <c r="J195" s="10"/>
       <c r="K195" s="10"/>
       <c r="L195" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E196" s="10">
         <v>1</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
@@ -6489,28 +6489,28 @@
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E197" s="11">
         <v>1</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H197" s="11"/>
       <c r="I197" s="11" t="b">
@@ -6519,25 +6519,25 @@
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E198" s="11">
         <v>1</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -6547,28 +6547,28 @@
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
       <c r="L198" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E199" s="11">
         <v>1</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H199" s="11"/>
       <c r="I199" s="11" t="b">
@@ -6577,19 +6577,19 @@
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
       <c r="L199" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
@@ -6599,19 +6599,19 @@
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
       <c r="L200" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
@@ -6621,19 +6621,19 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
@@ -6643,12 +6643,12 @@
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
       <c r="L202" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B203" s="17"/>
       <c r="C203" s="16"/>
@@ -6659,25 +6659,25 @@
       <c r="H203" s="16"/>
       <c r="I203" s="16"/>
       <c r="J203" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K203" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="K203" s="16" t="s">
+      <c r="L203" s="16" t="s">
         <v>371</v>
-      </c>
-      <c r="L203" s="16" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B204" s="18"/>
       <c r="C204" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204" s="18">
         <v>1</v>
@@ -6689,23 +6689,23 @@
         <v>1</v>
       </c>
       <c r="J204" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K204" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L204" s="18"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B205" s="17"/>
       <c r="C205" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D205" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E205" s="18">
         <v>2</v>
@@ -6716,22 +6716,22 @@
       <c r="I205" s="16"/>
       <c r="J205" s="16"/>
       <c r="K205" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L205" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B206" s="18"/>
       <c r="C206" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E206" s="18"/>
       <c r="F206" s="18"/>
@@ -6744,14 +6744,14 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E207" s="18"/>
       <c r="F207" s="18"/>
@@ -6759,21 +6759,21 @@
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
       <c r="J207" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K207" s="18"/>
       <c r="L207" s="18"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E208" s="18"/>
       <c r="F208" s="18"/>
@@ -6781,75 +6781,75 @@
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K208" s="18"/>
       <c r="L208" s="18"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B209" s="18"/>
       <c r="C209" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E209" s="18"/>
       <c r="F209" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G209" s="18"/>
       <c r="H209" s="18"/>
       <c r="I209" s="18"/>
       <c r="J209" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K209" s="18"/>
       <c r="L209" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G210" s="18"/>
       <c r="H210" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I210" s="18"/>
       <c r="J210" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K210" s="18"/>
       <c r="L210" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B211" s="18"/>
       <c r="C211" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211" s="18">
         <v>3</v>
@@ -6859,19 +6859,19 @@
       <c r="H211" s="18"/>
       <c r="I211" s="18"/>
       <c r="J211" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K211" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L211" s="18"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C212" s="16"/>
       <c r="D212" s="17"/>
@@ -6881,19 +6881,19 @@
       <c r="H212" s="16"/>
       <c r="I212" s="16"/>
       <c r="J212" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K212" s="16"/>
       <c r="L212" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
@@ -6904,16 +6904,16 @@
       <c r="I213" s="16"/>
       <c r="J213" s="16"/>
       <c r="K213" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L213" s="16"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
@@ -6924,16 +6924,16 @@
       <c r="I214" s="16"/>
       <c r="J214" s="16"/>
       <c r="K214" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L214" s="16"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
@@ -6944,18 +6944,18 @@
       <c r="I215" s="16"/>
       <c r="J215" s="16"/>
       <c r="K215" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L215" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="17"/>
@@ -6966,16 +6966,16 @@
       <c r="I216" s="16"/>
       <c r="J216" s="16"/>
       <c r="K216" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L216" s="16"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="17"/>
@@ -6985,21 +6985,21 @@
       <c r="H217" s="16"/>
       <c r="I217" s="16"/>
       <c r="J217" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="K217" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="K217" s="16" t="s">
+      <c r="L217" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="L217" s="16" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="17"/>
@@ -7010,16 +7010,16 @@
       <c r="I218" s="16"/>
       <c r="J218" s="16"/>
       <c r="K218" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L218" s="16"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="17"/>
@@ -7030,16 +7030,16 @@
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L219" s="16"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
@@ -7050,16 +7050,16 @@
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L220" s="16"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -7070,16 +7070,16 @@
       <c r="I221" s="16"/>
       <c r="J221" s="16"/>
       <c r="K221" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L221" s="16"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -7090,16 +7090,16 @@
       <c r="I222" s="16"/>
       <c r="J222" s="16"/>
       <c r="K222" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L222" s="16"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -7110,16 +7110,16 @@
       <c r="I223" s="16"/>
       <c r="J223" s="16"/>
       <c r="K223" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L223" s="16"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
@@ -7130,18 +7130,18 @@
       <c r="I224" s="16"/>
       <c r="J224" s="16"/>
       <c r="K224" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L224" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
@@ -7151,19 +7151,19 @@
       <c r="H225" s="16"/>
       <c r="I225" s="16"/>
       <c r="J225" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K225" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L225" s="16"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="18"/>
@@ -7178,10 +7178,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="18"/>
@@ -7196,10 +7196,10 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
@@ -7214,10 +7214,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C229" s="16"/>
       <c r="D229" s="17"/>
@@ -7228,57 +7228,57 @@
       <c r="I229" s="16"/>
       <c r="J229" s="16"/>
       <c r="K229" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L229" s="16"/>
     </row>
     <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D232" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/datacatalogue/_datacatalogue_schema.xlsx
+++ b/data/datacatalogue/_datacatalogue_schema.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D11D79-4D50-994A-8F35-680707DC4F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4BC70-6829-2B41-8E8B-473857C0AD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="410">
   <si>
     <t>tableName</t>
   </si>
@@ -789,18 +789,12 @@
     <t>version of the release</t>
   </si>
   <si>
-    <t>inclusedModels</t>
-  </si>
-  <si>
     <t>dct:conformsTo</t>
   </si>
   <si>
     <t xml:space="preserve">existing data models that are used to produce this release </t>
   </si>
   <si>
-    <t>includesDatabanks</t>
-  </si>
-  <si>
     <t>dcat:VersionOf</t>
   </si>
   <si>
@@ -1267,6 +1261,9 @@
   </si>
   <si>
     <t>refBack</t>
+  </si>
+  <si>
+    <t>models</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827AF39-8A78-C843-9B70-9944F4620E8F}">
-  <dimension ref="A1:L234"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1797,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2766,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2930,7 +2927,7 @@
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>22</v>
@@ -3205,7 +3202,7 @@
         <v>141</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3281,7 +3278,7 @@
         <v>141</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3344,7 +3341,7 @@
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>22</v>
@@ -3371,7 +3368,7 @@
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -3388,7 +3385,7 @@
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>22</v>
@@ -3506,7 +3503,7 @@
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>34</v>
@@ -3517,7 +3514,7 @@
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -3543,7 +3540,7 @@
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3639,7 +3636,7 @@
         <v>141</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3691,65 +3688,67 @@
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="L80" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L81" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="9" t="s">
-        <v>139</v>
+      <c r="F82" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3758,80 +3757,72 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="7" t="s">
-        <v>143</v>
+      <c r="F83" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7" t="s">
+      <c r="K84" s="7"/>
+      <c r="L84" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10" t="s">
+      <c r="K85" s="10"/>
+      <c r="L85" s="10" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="11">
-        <v>1</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3840,7 +3831,7 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>20</v>
@@ -3849,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -3857,13 +3848,11 @@
         <v>1</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>46</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3872,22 +3861,30 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1</v>
+      </c>
       <c r="F87" s="11" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
+      <c r="I87" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L87" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3896,24 +3893,22 @@
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="11" t="s">
-        <v>185</v>
-      </c>
+      <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3922,70 +3917,66 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
+      <c r="J89" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="K89" s="11"/>
       <c r="L89" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10" t="s">
+      <c r="K91" s="10"/>
+      <c r="L91" s="10" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="11">
-        <v>1</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3994,7 +3985,7 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>20</v>
@@ -4003,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -4011,11 +4002,11 @@
         <v>1</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4024,26 +4015,28 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="11"/>
+      <c r="E93" s="11">
+        <v>1</v>
+      </c>
       <c r="F93" s="11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="I93" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J93" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K93" s="11" t="s">
-        <v>46</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K93" s="11"/>
       <c r="L93" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4052,22 +4045,26 @@
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
+      <c r="J94" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L94" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4076,24 +4073,22 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
-      <c r="J95" s="11" t="s">
-        <v>198</v>
-      </c>
+      <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4102,66 +4097,64 @@
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
+      <c r="J96" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10" t="s">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="11">
-        <v>1</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4170,26 +4163,26 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E99" s="11">
         <v>1</v>
       </c>
-      <c r="F99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J99" s="11" t="s">
-        <v>204</v>
-      </c>
+      <c r="J99" s="11"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -4198,24 +4191,26 @@
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="12" t="s">
-        <v>206</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E100" s="11">
+        <v>1</v>
+      </c>
+      <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="I100" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J100" s="11" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -4224,20 +4219,24 @@
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
+      <c r="F101" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
+      <c r="J101" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="K101" s="11"/>
       <c r="L101" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -4246,10 +4245,10 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -4259,7 +4258,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4268,10 +4267,10 @@
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -4281,55 +4280,49 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="L104" s="10" t="s">
+      <c r="L105" s="10" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="11">
-        <v>1</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="L105" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4338,12 +4331,14 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="11"/>
+      <c r="E106" s="11">
+        <v>1</v>
+      </c>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -4352,10 +4347,10 @@
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4364,22 +4359,24 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
+      <c r="I107" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J107" s="11"/>
       <c r="K107" s="11" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4388,10 +4385,10 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -4400,10 +4397,10 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4412,10 +4409,10 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -4424,10 +4421,10 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4436,10 +4433,10 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -4448,10 +4445,10 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4460,7 +4457,7 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>95</v>
@@ -4472,10 +4469,10 @@
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4484,10 +4481,10 @@
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -4496,10 +4493,10 @@
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4508,7 +4505,7 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>15</v>
@@ -4520,10 +4517,10 @@
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4532,7 +4529,7 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>15</v>
@@ -4544,10 +4541,10 @@
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4556,10 +4553,10 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -4568,9 +4565,11 @@
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="L115" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
@@ -4578,74 +4577,66 @@
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E116" s="11"/>
-      <c r="F116" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H116" s="11"/>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11" t="s">
+      <c r="K116" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10" t="s">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10" t="s">
+      <c r="K118" s="10"/>
+      <c r="L118" s="10" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="11">
-        <v>1</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4654,26 +4645,28 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E119" s="11">
         <v>1</v>
       </c>
-      <c r="F119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4682,24 +4675,26 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11" t="s">
-        <v>133</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E120" s="11">
+        <v>1</v>
+      </c>
+      <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
+      <c r="I120" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J120" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4708,24 +4703,24 @@
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="11" t="s">
-        <v>254</v>
+        <v>409</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4734,24 +4729,24 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
+      <c r="F122" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="K122" s="11" t="s">
-        <v>223</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="K122" s="11"/>
       <c r="L122" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4760,10 +4755,10 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -4771,72 +4766,74 @@
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
       <c r="J123" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11" t="s">
+      <c r="K124" s="11"/>
+      <c r="L124" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="14">
-        <v>1</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E126" s="14">
         <v>1</v>
       </c>
-      <c r="F126" s="14"/>
+      <c r="F126" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14" t="b">
@@ -4848,34 +4845,38 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E127" s="14"/>
+      <c r="E127" s="14">
+        <v>1</v>
+      </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="I127" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
@@ -4884,17 +4885,15 @@
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
-      <c r="L128" s="14" t="s">
-        <v>263</v>
-      </c>
+      <c r="L128" s="14"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>95</v>
@@ -4907,47 +4906,45 @@
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E130" s="14"/>
-      <c r="F130" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -4955,125 +4952,121 @@
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="F132" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E133" s="14"/>
-      <c r="F133" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
+      <c r="F134" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
       <c r="L134" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L136" s="13" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="L135" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E136" s="14">
-        <v>1</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5082,15 +5075,17 @@
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E137" s="14">
         <v>1</v>
       </c>
-      <c r="F137" s="14"/>
+      <c r="F137" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14" t="b">
@@ -5099,7 +5094,7 @@
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
       <c r="L137" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5108,19 +5103,25 @@
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E138" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="E138" s="14">
+        <v>1</v>
+      </c>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="I138" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
-      <c r="L138" s="14"/>
+      <c r="L138" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
@@ -5128,10 +5129,10 @@
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
@@ -5148,15 +5149,13 @@
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E140" s="14"/>
-      <c r="F140" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="F140" s="14"/>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
@@ -5170,23 +5169,21 @@
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
-      <c r="L141" s="14" t="s">
-        <v>279</v>
-      </c>
+      <c r="L141" s="14"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
@@ -5194,154 +5191,154 @@
       </c>
       <c r="B142" s="14"/>
       <c r="C142" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="F142" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
       <c r="K142" s="14"/>
-      <c r="L142" s="14"/>
+      <c r="L142" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10" t="s">
-        <v>281</v>
-      </c>
+      <c r="A143" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E144" s="11">
-        <v>1</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K144" s="11"/>
-      <c r="L144" s="11" t="s">
-        <v>283</v>
+      <c r="A144" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E145" s="11">
         <v>1</v>
       </c>
-      <c r="F145" s="11"/>
+      <c r="F145" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J145" s="11"/>
+      <c r="J145" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="K145" s="11"/>
       <c r="L145" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E146" s="11"/>
+      <c r="E146" s="11">
+        <v>1</v>
+      </c>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
+      <c r="I146" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
       <c r="L146" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E147" s="11"/>
-      <c r="F147" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
       <c r="L147" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="11" t="s">
-        <v>405</v>
+        <v>286</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -5349,41 +5346,43 @@
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11" t="s">
-        <v>10</v>
+        <v>402</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
+      <c r="F149" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
       <c r="L149" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
@@ -5393,114 +5392,106 @@
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
       <c r="L150" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E151" s="11"/>
-      <c r="F151" s="11" t="s">
-        <v>295</v>
-      </c>
+      <c r="F151" s="11"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="11" t="s">
-        <v>296</v>
-      </c>
+      <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
       <c r="L151" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
       <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
+      <c r="L152" s="11" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10" t="s">
-        <v>301</v>
-      </c>
+      <c r="A153" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E154" s="11">
-        <v>1</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K154" s="11"/>
-      <c r="L154" s="11" t="s">
-        <v>302</v>
+      <c r="A154" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>20</v>
@@ -5509,37 +5500,41 @@
         <v>1</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>282</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J155" s="11"/>
+      <c r="J155" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="K155" s="11"/>
       <c r="L155" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E156" s="11">
         <v>1</v>
       </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="F156" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="H156" s="11"/>
       <c r="I156" s="11" t="b">
         <v>1</v>
@@ -5547,114 +5542,120 @@
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
       <c r="L156" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11" t="s">
-        <v>261</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E157" s="11">
+        <v>1</v>
+      </c>
+      <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
+      <c r="I157" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="G158" s="11"/>
-      <c r="H158" s="11" t="s">
-        <v>309</v>
-      </c>
+      <c r="H158" s="11"/>
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="11"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11" t="s">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
+      <c r="F161" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
@@ -5664,42 +5665,38 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E162" s="11"/>
-      <c r="F162" s="11" t="s">
-        <v>314</v>
-      </c>
+      <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
-      <c r="L162" s="11" t="s">
-        <v>315</v>
-      </c>
+      <c r="L162" s="11"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E163" s="11"/>
       <c r="F163" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -5707,89 +5704,91 @@
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
       <c r="L163" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>31</v>
+        <v>314</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="11" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
+      <c r="L164" s="11" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>20</v>
+        <v>402</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>282</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G165" s="11"/>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
-      <c r="L165" s="11" t="s">
-        <v>320</v>
-      </c>
+      <c r="L165" s="11"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="F166" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="H166" s="11"/>
       <c r="I166" s="11"/>
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
       <c r="L166" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>22</v>
+        <v>319</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
@@ -5798,18 +5797,20 @@
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
+      <c r="L167" s="11" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -5818,20 +5819,18 @@
       <c r="I168" s="11"/>
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
-      <c r="L168" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="L168" s="11"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
@@ -5840,27 +5839,25 @@
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
+      <c r="L169" s="11" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="E170" s="11"/>
-      <c r="F170" s="11" t="s">
-        <v>328</v>
-      </c>
+      <c r="F170" s="11"/>
       <c r="G170" s="11"/>
-      <c r="H170" s="11" t="s">
-        <v>329</v>
-      </c>
+      <c r="H170" s="11"/>
       <c r="I170" s="11"/>
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
@@ -5868,21 +5865,23 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
+      <c r="H171" s="11" t="s">
+        <v>327</v>
+      </c>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
@@ -5890,131 +5889,125 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E172" s="11"/>
       <c r="F172" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G172" s="11"/>
-      <c r="H172" s="11" t="s">
-        <v>334</v>
-      </c>
+      <c r="H172" s="11"/>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
-      <c r="L172" s="11" t="s">
+      <c r="L172" s="11"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10" t="s">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" s="11"/>
-      <c r="K174" s="11"/>
-      <c r="L174" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="11">
-        <v>1</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>20</v>
@@ -6023,37 +6016,39 @@
         <v>1</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>282</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G177" s="11"/>
       <c r="H177" s="11"/>
       <c r="I177" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J177" s="11"/>
+      <c r="J177" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="K177" s="11"/>
-      <c r="L177" s="11" t="s">
-        <v>339</v>
-      </c>
+      <c r="L177" s="11"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E178" s="11">
         <v>1</v>
       </c>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
+      <c r="F178" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11" t="b">
         <v>1</v>
@@ -6061,21 +6056,23 @@
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
       <c r="L178" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E179" s="11"/>
+      <c r="E179" s="11">
+        <v>1</v>
+      </c>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -6084,38 +6081,42 @@
       </c>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
+      <c r="L179" s="11" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
+      <c r="I180" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J180" s="11"/>
       <c r="K180" s="11"/>
       <c r="L180" s="11"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>322</v>
+        <v>95</v>
       </c>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
@@ -6128,14 +6129,14 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
@@ -6144,61 +6145,55 @@
       <c r="I182" s="11"/>
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
-      <c r="L182" s="11" t="s">
-        <v>344</v>
-      </c>
+      <c r="L182" s="11"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="10" t="s">
-        <v>345</v>
+      <c r="A183" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184" s="11">
-        <v>1</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G184" s="11"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" s="11"/>
-      <c r="K184" s="11"/>
-      <c r="L184" s="11"/>
+      <c r="A184" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>20</v>
@@ -6207,11 +6202,9 @@
         <v>1</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>346</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G185" s="11"/>
       <c r="H185" s="11"/>
       <c r="I185" s="11" t="b">
         <v>1</v>
@@ -6222,63 +6215,65 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E186" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="E186" s="11">
+        <v>1</v>
+      </c>
       <c r="F186" s="11" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
+      <c r="I186" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
-      <c r="L186" s="11" t="s">
-        <v>348</v>
-      </c>
+      <c r="L186" s="11"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="11">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E187" s="11"/>
       <c r="F187" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G187" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="H187" s="11"/>
-      <c r="I187" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I187" s="11"/>
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
+      <c r="L187" s="11" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>20</v>
@@ -6287,11 +6282,9 @@
         <v>1</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>349</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G188" s="11"/>
       <c r="H188" s="11"/>
       <c r="I188" s="11" t="b">
         <v>1</v>
@@ -6302,11 +6295,11 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>20</v>
@@ -6315,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11" t="b">
@@ -6326,26 +6319,28 @@
       </c>
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
-      <c r="L189" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="L189" s="11"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E190" s="11"/>
+      <c r="E190" s="11">
+        <v>1</v>
+      </c>
       <c r="F190" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="G190" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>294</v>
+      </c>
       <c r="H190" s="11"/>
       <c r="I190" s="11" t="b">
         <v>1</v>
@@ -6353,62 +6348,66 @@
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E191" s="11"/>
       <c r="F191" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
+      <c r="I191" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
+      <c r="F192" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
       <c r="J192" s="11"/>
       <c r="K192" s="11"/>
       <c r="L192" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>22</v>
@@ -6421,16 +6420,16 @@
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>22</v>
@@ -6443,92 +6442,84 @@
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
       <c r="L194" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10" t="s">
-        <v>362</v>
+      <c r="A195" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A196" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196" s="10">
-        <v>1</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="A196" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
-      <c r="I196" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" s="11"/>
-      <c r="K196" s="11"/>
-      <c r="L196" s="11" t="s">
-        <v>363</v>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E197" s="11">
+      <c r="E197" s="10">
         <v>1</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="H197" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
       <c r="I197" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>20</v>
@@ -6537,9 +6528,11 @@
         <v>1</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G198" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="H198" s="11"/>
       <c r="I198" s="11" t="b">
         <v>1</v>
@@ -6547,16 +6540,16 @@
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
       <c r="L198" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>20</v>
@@ -6565,11 +6558,9 @@
         <v>1</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>349</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G199" s="11"/>
       <c r="H199" s="11"/>
       <c r="I199" s="11" t="b">
         <v>1</v>
@@ -6577,41 +6568,49 @@
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
       <c r="L199" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="E200" s="11">
+        <v>1</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>347</v>
+      </c>
       <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
+      <c r="I200" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
       <c r="L200" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="11" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
@@ -6621,16 +6620,16 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="11" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>22</v>
@@ -6643,134 +6642,134 @@
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
       <c r="L202" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B204" s="17"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="K204" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B203" s="17"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="16"/>
-      <c r="J203" s="16" t="s">
+      <c r="L204" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="K203" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L203" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E204" s="18">
-        <v>1</v>
-      </c>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="K204" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L204" s="18"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B205" s="17"/>
+        <v>366</v>
+      </c>
+      <c r="B205" s="18"/>
       <c r="C205" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D205" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E205" s="18">
-        <v>2</v>
-      </c>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
-      <c r="I205" s="16"/>
-      <c r="J205" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="18" t="s">
+        <v>370</v>
+      </c>
       <c r="K205" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L205" s="18" t="s">
-        <v>374</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L205" s="18"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B206" s="18"/>
+        <v>366</v>
+      </c>
+      <c r="B206" s="17"/>
       <c r="C206" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="18"/>
+        <v>371</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="18">
+        <v>2</v>
+      </c>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="16"/>
+      <c r="J206" s="16"/>
+      <c r="K206" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L206" s="18" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E207" s="18"/>
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
-      <c r="J207" s="18" t="s">
-        <v>376</v>
-      </c>
+      <c r="J207" s="18"/>
       <c r="K207" s="18"/>
       <c r="L207" s="18"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="18" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>22</v>
@@ -6781,139 +6780,141 @@
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K208" s="18"/>
       <c r="L208" s="18"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B209" s="18"/>
       <c r="C209" s="18" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E209" s="18"/>
-      <c r="F209" s="18" t="s">
-        <v>368</v>
-      </c>
+      <c r="F209" s="18"/>
       <c r="G209" s="18"/>
       <c r="H209" s="18"/>
       <c r="I209" s="18"/>
       <c r="J209" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K209" s="18"/>
-      <c r="L209" s="18" t="s">
-        <v>380</v>
-      </c>
+      <c r="L209" s="18"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="18" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G210" s="18"/>
-      <c r="H210" s="18" t="s">
-        <v>378</v>
-      </c>
+      <c r="H210" s="18"/>
       <c r="I210" s="18"/>
       <c r="J210" s="18" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K210" s="18"/>
       <c r="L210" s="18" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B211" s="18"/>
       <c r="C211" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E211" s="18">
-        <v>3</v>
-      </c>
-      <c r="F211" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="E211" s="18"/>
+      <c r="F211" s="18" t="s">
+        <v>366</v>
+      </c>
       <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
+      <c r="H211" s="18" t="s">
+        <v>376</v>
+      </c>
       <c r="I211" s="18"/>
       <c r="J211" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="K211" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="K211" s="18"/>
+      <c r="L211" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" s="18">
+        <v>3</v>
+      </c>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+      <c r="J212" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="K212" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L211" s="18"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C212" s="16"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="16"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="16"/>
-      <c r="J212" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="K212" s="16"/>
-      <c r="L212" s="16" t="s">
-        <v>387</v>
-      </c>
+      <c r="L212" s="18"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="16" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
+      <c r="D213" s="17"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
       <c r="H213" s="16"/>
       <c r="I213" s="16"/>
-      <c r="J213" s="16"/>
-      <c r="K213" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L213" s="16"/>
+      <c r="J213" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K213" s="16"/>
+      <c r="L213" s="16" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
@@ -6924,16 +6925,16 @@
       <c r="I214" s="16"/>
       <c r="J214" s="16"/>
       <c r="K214" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L214" s="16"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="16" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
@@ -6944,21 +6945,19 @@
       <c r="I215" s="16"/>
       <c r="J215" s="16"/>
       <c r="K215" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L215" s="16" t="s">
-        <v>388</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="L215" s="16"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" s="17" t="s">
-        <v>122</v>
+      <c r="A216" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C216" s="16"/>
-      <c r="D216" s="17"/>
+      <c r="D216" s="16"/>
       <c r="E216" s="16"/>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
@@ -6966,16 +6965,18 @@
       <c r="I216" s="16"/>
       <c r="J216" s="16"/>
       <c r="K216" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L216" s="16"/>
+        <v>368</v>
+      </c>
+      <c r="L216" s="16" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="17" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="17"/>
@@ -6984,22 +6985,18 @@
       <c r="G217" s="16"/>
       <c r="H217" s="16"/>
       <c r="I217" s="16"/>
-      <c r="J217" s="16" t="s">
-        <v>389</v>
-      </c>
+      <c r="J217" s="16"/>
       <c r="K217" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="L217" s="16" t="s">
-        <v>391</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="L217" s="16"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="17" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="17"/>
@@ -7008,18 +7005,22 @@
       <c r="G218" s="16"/>
       <c r="H218" s="16"/>
       <c r="I218" s="16"/>
-      <c r="J218" s="16"/>
+      <c r="J218" s="16" t="s">
+        <v>387</v>
+      </c>
       <c r="K218" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L218" s="16"/>
+        <v>388</v>
+      </c>
+      <c r="L218" s="16" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="17"/>
@@ -7030,19 +7031,19 @@
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L219" s="16"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="17" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C220" s="16"/>
-      <c r="D220" s="16"/>
+      <c r="D220" s="17"/>
       <c r="E220" s="16"/>
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
@@ -7050,16 +7051,16 @@
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L220" s="16"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" s="16" t="s">
-        <v>21</v>
+      <c r="A221" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -7070,16 +7071,16 @@
       <c r="I221" s="16"/>
       <c r="J221" s="16"/>
       <c r="K221" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L221" s="16"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="16" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -7090,16 +7091,16 @@
       <c r="I222" s="16"/>
       <c r="J222" s="16"/>
       <c r="K222" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L222" s="16"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -7110,16 +7111,16 @@
       <c r="I223" s="16"/>
       <c r="J223" s="16"/>
       <c r="K223" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L223" s="16"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
@@ -7130,18 +7131,16 @@
       <c r="I224" s="16"/>
       <c r="J224" s="16"/>
       <c r="K224" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L224" s="16" t="s">
-        <v>392</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="L224" s="16"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="16" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
@@ -7150,38 +7149,42 @@
       <c r="G225" s="16"/>
       <c r="H225" s="16"/>
       <c r="I225" s="16"/>
-      <c r="J225" s="16" t="s">
-        <v>393</v>
-      </c>
+      <c r="J225" s="16"/>
       <c r="K225" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L225" s="16"/>
+        <v>368</v>
+      </c>
+      <c r="L225" s="16" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="16" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B226" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C226" s="16"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="16"/>
+      <c r="I226" s="16"/>
+      <c r="J226" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="K226" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="18"/>
-      <c r="I226" s="18"/>
-      <c r="J226" s="18"/>
-      <c r="K226" s="18"/>
-      <c r="L226" s="18"/>
+      <c r="L226" s="16"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="16" t="s">
-        <v>408</v>
+        <v>184</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="18"/>
@@ -7196,56 +7199,66 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+      <c r="I228" s="18"/>
+      <c r="J228" s="18"/>
+      <c r="K228" s="18"/>
+      <c r="L228" s="18"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B228" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C228" s="16"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="16"/>
-      <c r="F228" s="16"/>
-      <c r="G228" s="16"/>
-      <c r="H228" s="16"/>
-      <c r="I228" s="16"/>
-      <c r="J228" s="16"/>
-      <c r="K228" s="16"/>
-      <c r="L228" s="16"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="B229" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C229" s="16"/>
-      <c r="D229" s="17"/>
+      <c r="D229" s="16"/>
       <c r="E229" s="16"/>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
       <c r="H229" s="16"/>
       <c r="I229" s="16"/>
       <c r="J229" s="16"/>
-      <c r="K229" s="16" t="s">
-        <v>370</v>
-      </c>
+      <c r="K229" s="16"/>
       <c r="L229" s="16"/>
     </row>
-    <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C230" s="20" t="s">
-        <v>394</v>
-      </c>
+      <c r="B230" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C230" s="16"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="16"/>
+      <c r="J230" s="16"/>
+      <c r="K230" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="L230" s="16"/>
     </row>
     <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -7253,10 +7266,7 @@
         <v>77</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D232" t="s">
-        <v>22</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -7264,7 +7274,7 @@
         <v>77</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>396</v>
+        <v>158</v>
       </c>
       <c r="D233" t="s">
         <v>22</v>
@@ -7275,9 +7285,20 @@
         <v>77</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D234" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C235" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D235" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/datacatalogue/_datacatalogue_schema.xlsx
+++ b/data/datacatalogue/_datacatalogue_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4BC70-6829-2B41-8E8B-473857C0AD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59F16E-5585-BF4A-881D-79D6135E02AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
